--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/20/seed4/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>5.354399999999998</v>
+        <v>5.380099999999996</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.83459999999999</v>
+        <v>5.787799999999992</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.845700000000003</v>
+        <v>4.890400000000001</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.240199999999994</v>
+        <v>-7.286600000000002</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.20319999999997</v>
+        <v>-20.28159999999997</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.690000000000007</v>
+        <v>-8.617400000000005</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -618,7 +618,7 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>5.378999999999998</v>
+        <v>5.444599999999997</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.256000000000001</v>
+        <v>5.410799999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-21.89360000000003</v>
+        <v>-21.91350000000003</v>
       </c>
       <c r="B13" t="n">
         <v>4.42</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.12799999999999</v>
+        <v>-20.10429999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.89100000000001</v>
+        <v>-22.5012</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.13730000000003</v>
+        <v>-21.98310000000001</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -788,13 +788,13 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.372799999999992</v>
+        <v>5.492199999999992</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.654100000000003</v>
+        <v>-7.692599999999995</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
